--- a/config_12.15/fish_yutu_random_2.xlsx
+++ b/config_12.15/fish_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,23 +286,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,193,194,195,193,194,195,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,196,197,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,198,199,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,198,199,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,200,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,206,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +474,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="15">
         <v>2</v>
@@ -1484,7 +1497,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="15">
         <v>2</v>
@@ -1508,7 +1521,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="15">
         <v>2</v>
@@ -1532,7 +1545,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="15">
         <v>2</v>
@@ -1546,6 +1559,102 @@
       </c>
       <c r="H16" s="14">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="17">
+        <v>44</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="17">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="17">
+        <v>46</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="17">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1853,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
